--- a/Test and complexity data.xlsx
+++ b/Test and complexity data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kziad\PycharmProjects\test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDACECD0-CD39-43E4-82AC-A501DD19DEDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B088BAD9-D008-4EAA-8193-A93A70F1371B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15480" xr2:uid="{A2CDA417-EEC7-45AD-AB8C-81ADD562F248}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>RSG ID</t>
   </si>
@@ -188,6 +188,24 @@
   </si>
   <si>
     <t xml:space="preserve">Anchor </t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>2*(3+10)</t>
+  </si>
+  <si>
+    <t>2*(3+13)</t>
   </si>
 </sst>
 </file>
@@ -348,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -388,6 +406,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,10 +927,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8417F916-72D7-4B07-880B-6B4AD4806338}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,14 +940,18 @@
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -942,20 +971,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="19">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="19">
         <f t="shared" ref="E2:E12" si="0">SUM(B2:D2)</f>
         <v>1</v>
       </c>
@@ -963,20 +992,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="19">
+        <v>2</v>
+      </c>
+      <c r="C3" s="19">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -984,20 +1013,20 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19">
+        <v>2</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1005,20 +1034,20 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="19">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="19">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="19">
+        <v>2</v>
+      </c>
+      <c r="E5" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1026,20 +1055,20 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="19">
+        <v>1</v>
+      </c>
+      <c r="C6" s="19">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="19">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1047,20 +1076,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="B7" s="19">
+        <v>2</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1068,20 +1097,20 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="B8" s="19">
+        <v>2</v>
+      </c>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1089,20 +1118,20 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="19">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="19">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1110,63 +1139,63 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="19">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="19">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="19">
+        <v>2</v>
+      </c>
+      <c r="E10" s="19">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>6.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="19">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="19">
         <v>5</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="19">
+        <v>3</v>
+      </c>
+      <c r="E11" s="19">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>7.9</v>
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="19">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="19">
         <v>8</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="19">
+        <v>1</v>
+      </c>
+      <c r="E12" s="19">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1174,7 +1203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1190,8 +1219,32 @@
       <c r="E15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15" t="s">
+        <v>50</v>
+      </c>
+      <c r="S15" t="s">
+        <v>51</v>
+      </c>
+      <c r="T15" t="s">
+        <v>48</v>
+      </c>
+      <c r="U15" t="s">
+        <v>49</v>
+      </c>
+      <c r="V15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1221,11 +1274,11 @@
         <v>21</v>
       </c>
       <c r="D17" t="e">
-        <f ca="1">eval(C17)</f>
+        <f t="shared" ref="D17:D28" ca="1" si="1">eval(C17)</f>
         <v>#NAME?</v>
       </c>
       <c r="E17" t="e">
-        <f t="shared" ref="E17:E28" ca="1" si="1">D17/2.66</f>
+        <f t="shared" ref="E17:E28" ca="1" si="2">D17/2.66</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1240,11 +1293,11 @@
         <v>22</v>
       </c>
       <c r="D18" t="e">
-        <f t="shared" ref="D18:D28" ca="1" si="2">eval(C18)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
       <c r="E18" t="e">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1259,11 +1312,11 @@
         <v>23</v>
       </c>
       <c r="D19" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E19" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E19" t="e">
-        <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1278,11 +1331,11 @@
         <v>24</v>
       </c>
       <c r="D20" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E20" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E20" t="e">
-        <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1297,11 +1350,11 @@
         <v>25</v>
       </c>
       <c r="D21" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E21" t="e">
-        <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1316,11 +1369,11 @@
         <v>22</v>
       </c>
       <c r="D22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E22" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E22" t="e">
-        <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1335,11 +1388,11 @@
         <v>26</v>
       </c>
       <c r="D23" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E23" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E23" t="e">
-        <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1354,11 +1407,11 @@
         <v>27</v>
       </c>
       <c r="D24" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E24" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E24" t="e">
-        <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1373,11 +1426,11 @@
         <v>28</v>
       </c>
       <c r="D25" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E25" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E25" t="e">
-        <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1389,14 +1442,14 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D26" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E26" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E26" t="e">
-        <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1408,14 +1461,14 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D27" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E27" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E27" t="e">
-        <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1430,11 +1483,11 @@
         <v>31</v>
       </c>
       <c r="D28" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E28" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E28" t="e">
-        <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1447,10 +1500,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF24490-4864-4ECC-90A3-9ED27D9F0DD4}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:O1"/>
+      <selection activeCell="L2" sqref="I2:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,9 +1514,14 @@
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1482,23 +1540,29 @@
       <c r="F1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1519,8 +1583,42 @@
       <c r="F2" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H2" s="18">
+        <v>1</v>
+      </c>
+      <c r="I2" s="19">
+        <v>1</v>
+      </c>
+      <c r="J2" s="19">
+        <v>0</v>
+      </c>
+      <c r="K2" s="19">
+        <v>0</v>
+      </c>
+      <c r="L2" s="19">
+        <f t="shared" ref="L2:L12" si="0">SUM(I2:K2)</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="21">
+        <f>((L2-1)*(10-1)/(14-1)) + 1</f>
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f>((L2-1)*(10-0)/(14-1)) + 1</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2">
+        <f>MIN(L2:L12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1535,14 +1633,48 @@
         <v>#NAME?</v>
       </c>
       <c r="E3" s="8" t="e">
-        <f t="shared" ref="E3:E14" ca="1" si="0">D3/2.66</f>
+        <f t="shared" ref="E3:E14" ca="1" si="1">D3/2.66</f>
         <v>#NAME?</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H3" s="18">
+        <v>2</v>
+      </c>
+      <c r="I3" s="19">
+        <v>2</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19">
+        <v>1</v>
+      </c>
+      <c r="L3" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M3" s="21">
+        <f t="shared" ref="M3:M12" si="2">((L3-1)*(10-1)/(14-1)) + 1</f>
+        <v>2.3846153846153846</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N12" si="3">((L3-1)*(10-1)/(14-1)) + 1</f>
+        <v>2.3846153846153846</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3">
+        <f>MAX(L2:L12)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1553,18 +1685,51 @@
         <v>22</v>
       </c>
       <c r="D4" s="7" t="e">
-        <f t="shared" ref="D4:D14" ca="1" si="1">eval(C4)</f>
+        <f t="shared" ref="D4:D14" ca="1" si="4">eval(C4)</f>
         <v>#NAME?</v>
       </c>
       <c r="E4" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>#NAME?</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H4" s="18">
+        <v>3</v>
+      </c>
+      <c r="I4" s="19">
+        <v>2</v>
+      </c>
+      <c r="J4" s="19">
+        <v>2</v>
+      </c>
+      <c r="K4" s="19">
+        <v>1</v>
+      </c>
+      <c r="L4" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M4" s="21">
+        <f t="shared" si="2"/>
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="O4" s="1">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1575,18 +1740,51 @@
         <v>23</v>
       </c>
       <c r="D5" s="7" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5" s="8" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E5" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5" s="18">
+        <v>4</v>
+      </c>
+      <c r="I5" s="19">
+        <v>3</v>
+      </c>
+      <c r="J5" s="19">
+        <v>4</v>
+      </c>
+      <c r="K5" s="19">
+        <v>2</v>
+      </c>
+      <c r="L5" s="19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M5" s="21">
+        <f t="shared" si="2"/>
+        <v>6.5384615384615383</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>6.5384615384615383</v>
+      </c>
+      <c r="O5" s="1">
+        <v>4</v>
+      </c>
+      <c r="P5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1597,18 +1795,45 @@
         <v>24</v>
       </c>
       <c r="D6" s="7" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" s="8" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E6" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="18">
+        <v>5</v>
+      </c>
+      <c r="I6" s="19">
+        <v>1</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0</v>
+      </c>
+      <c r="L6" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1619,18 +1844,45 @@
         <v>25</v>
       </c>
       <c r="D7" s="7" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E7" s="8" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E7" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="18">
+        <v>6</v>
+      </c>
+      <c r="I7" s="19">
+        <v>2</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1</v>
+      </c>
+      <c r="L7" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M7" s="21">
+        <f t="shared" si="2"/>
+        <v>3.0769230769230771</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>3.0769230769230771</v>
+      </c>
+      <c r="O7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1641,18 +1893,45 @@
         <v>22</v>
       </c>
       <c r="D8" s="7" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E8" s="8" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E8" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8" s="18">
+        <v>7</v>
+      </c>
+      <c r="I8" s="19">
+        <v>2</v>
+      </c>
+      <c r="J8" s="19">
+        <v>2</v>
+      </c>
+      <c r="K8" s="19">
+        <v>1</v>
+      </c>
+      <c r="L8" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M8" s="21">
+        <f t="shared" si="2"/>
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="O8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1663,18 +1942,45 @@
         <v>26</v>
       </c>
       <c r="D9" s="7" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E9" s="8" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E9" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9" s="18">
+        <v>8</v>
+      </c>
+      <c r="I9" s="19">
+        <v>3</v>
+      </c>
+      <c r="J9" s="19">
+        <v>3</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1</v>
+      </c>
+      <c r="L9" s="19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M9" s="21">
+        <f t="shared" si="2"/>
+        <v>5.1538461538461542</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>5.1538461538461542</v>
+      </c>
+      <c r="O9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1685,18 +1991,45 @@
         <v>27</v>
       </c>
       <c r="D10" s="7" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="8" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E10" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H10" s="18">
+        <v>9</v>
+      </c>
+      <c r="I10" s="19">
+        <v>4</v>
+      </c>
+      <c r="J10" s="19">
+        <v>4</v>
+      </c>
+      <c r="K10" s="19">
+        <v>2</v>
+      </c>
+      <c r="L10" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M10" s="21">
+        <f t="shared" si="2"/>
+        <v>7.2307692307692308</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>7.2307692307692308</v>
+      </c>
+      <c r="O10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1707,18 +2040,45 @@
         <v>28</v>
       </c>
       <c r="D11" s="7" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" s="8" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E11" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11" s="18">
+        <v>10</v>
+      </c>
+      <c r="I11" s="19">
+        <v>5</v>
+      </c>
+      <c r="J11" s="19">
+        <v>5</v>
+      </c>
+      <c r="K11" s="19">
+        <v>3</v>
+      </c>
+      <c r="L11" s="19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M11" s="21">
+        <f t="shared" si="2"/>
+        <v>9.3076923076923084</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>9.3076923076923084</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1729,18 +2089,45 @@
         <v>29</v>
       </c>
       <c r="D12" s="7" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E12" s="8" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E12" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12" s="18">
+        <v>11</v>
+      </c>
+      <c r="I12" s="19">
+        <v>5</v>
+      </c>
+      <c r="J12" s="19">
+        <v>8</v>
+      </c>
+      <c r="K12" s="19">
+        <v>1</v>
+      </c>
+      <c r="L12" s="19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M12" s="21">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="O12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1751,18 +2138,18 @@
         <v>30</v>
       </c>
       <c r="D13" s="7" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E13" s="8" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E13" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1773,11 +2160,11 @@
         <v>31</v>
       </c>
       <c r="D14" s="10" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E14" s="11" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="E14" s="11" t="e">
-        <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
       <c r="F14" s="14" t="s">
